--- a/finances.xlsx
+++ b/finances.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lnogueir/Desktop/My_Programming/my_scripts/financial_automation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848568E6-9234-2F44-87A9-57F5BC2FDB2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18400" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="9_2019" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -82,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +124,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -184,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,27 +202,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,24 +236,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,18 +440,18 @@
         <v>-1499.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2941.5200000000009</v>
+        <v>2941.520000000001</v>
       </c>
       <c r="C3">
         <v>-101.84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,7 +462,7 @@
         <v>-1.85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -523,7 +473,7 @@
         <v>-1.85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -534,122 +484,122 @@
         <v>-18.48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2810.6600000000021</v>
+        <v>2810.660000000002</v>
       </c>
       <c r="C7">
         <v>-108.68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2808.8100000000022</v>
+        <v>2808.810000000002</v>
       </c>
       <c r="C8">
         <v>-1.85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2891.3600000000019</v>
+        <v>2891.360000000002</v>
       </c>
       <c r="C9">
         <v>82.55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2889.7400000000021</v>
+        <v>2889.740000000002</v>
       </c>
       <c r="C10">
         <v>-1.62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7872.3300000000017</v>
+        <v>7872.330000000002</v>
       </c>
       <c r="C11">
         <v>4982.59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7868.0800000000017</v>
+        <v>7868.080000000002</v>
       </c>
       <c r="C12">
         <v>-4.25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7866.4600000000019</v>
+        <v>7866.460000000002</v>
       </c>
       <c r="C13">
         <v>-1.62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7859.2400000000016</v>
+        <v>7859.240000000002</v>
       </c>
       <c r="C14">
         <v>-7.22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7813.6300000000019</v>
+        <v>7813.630000000002</v>
       </c>
       <c r="C15">
         <v>-45.61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7746.2700000000023</v>
+        <v>7746.270000000002</v>
       </c>
       <c r="C16">
         <v>-67.36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7737.2800000000016</v>
+        <v>7737.280000000002</v>
       </c>
       <c r="C17">
         <v>-8.99</v>

--- a/finances.xlsx
+++ b/finances.xlsx
@@ -19,6 +19,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Cash flow</t>
+  </si>
+  <si>
     <t>2019-09-03</t>
   </si>
   <si>
@@ -65,12 +71,6 @@
   </si>
   <si>
     <t>2019-09-21</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Cash flow</t>
   </si>
 </sst>
 </file>
@@ -423,15 +423,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3043.360000000001</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2941.520000000001</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2939.670000000001</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2937.820000000002</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2919.340000000002</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2810.660000000002</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2808.810000000002</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2891.360000000002</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2889.740000000002</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>7872.330000000002</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>7868.080000000002</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>7866.460000000002</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>7859.240000000002</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>7813.630000000002</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>7746.270000000002</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>7737.280000000002</v>
